--- a/results_final/ti_HH.xlsx
+++ b/results_final/ti_HH.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.556852182785387</v>
+        <v>1.557103408905898</v>
       </c>
       <c r="E2">
-        <v>2.200972217961598</v>
+        <v>2.202194721122682</v>
       </c>
       <c r="F2">
-        <v>2.843970303975727</v>
+        <v>2.847318890792269</v>
       </c>
       <c r="G2">
-        <v>3.449204009423614</v>
+        <v>3.456109044248623</v>
       </c>
       <c r="H2">
-        <v>3.997606512056884</v>
+        <v>4.009582532959971</v>
       </c>
       <c r="I2">
-        <v>4.481091520898588</v>
+        <v>4.499564604173098</v>
       </c>
       <c r="J2">
-        <v>4.897894991379703</v>
+        <v>4.924056540564133</v>
       </c>
       <c r="K2">
-        <v>5.249220371899231</v>
+        <v>5.283908825822992</v>
       </c>
       <c r="L2">
-        <v>5.537171943426474</v>
+        <v>5.580799816418535</v>
       </c>
       <c r="M2">
-        <v>5.755938254858289</v>
+        <v>5.808448415346879</v>
       </c>
       <c r="N2">
-        <v>5.908298389281907</v>
+        <v>5.969085932062267</v>
       </c>
       <c r="O2">
-        <v>5.994516560582488</v>
+        <v>6.062294093794586</v>
       </c>
       <c r="P2">
-        <v>6.011952916856112</v>
+        <v>6.084544195359364</v>
       </c>
       <c r="Q2">
-        <v>5.972692166884737</v>
+        <v>6.047835139907743</v>
       </c>
       <c r="R2">
-        <v>5.901337809085699</v>
+        <v>5.977552344775435</v>
       </c>
       <c r="S2">
-        <v>5.814056223467435</v>
+        <v>5.89039740274101</v>
       </c>
       <c r="T2">
-        <v>5.721266013410427</v>
+        <v>5.797154196487995</v>
       </c>
       <c r="U2">
-        <v>5.629481752679813</v>
+        <v>5.704585008809692</v>
       </c>
       <c r="V2">
-        <v>5.542581493271409</v>
+        <v>5.616733974672637</v>
       </c>
       <c r="W2">
-        <v>5.462679813898384</v>
+        <v>5.535824986516845</v>
       </c>
       <c r="X2">
-        <v>5.390729489072605</v>
+        <v>5.462880684313816</v>
       </c>
       <c r="Y2">
-        <v>5.326935520204578</v>
+        <v>5.398148640334431</v>
       </c>
       <c r="Z2">
-        <v>5.27103885870828</v>
+        <v>5.34139365557878</v>
       </c>
       <c r="AA2">
-        <v>5.222509345884914</v>
+        <v>5.292096764958279</v>
       </c>
       <c r="AB2">
-        <v>5.180675314929808</v>
+        <v>5.249589129711511</v>
       </c>
       <c r="AC2">
-        <v>5.144809038699741</v>
+        <v>5.213140508976676</v>
       </c>
       <c r="AD2">
-        <v>5.114181504137944</v>
+        <v>5.18201614898701</v>
       </c>
       <c r="AE2">
-        <v>5.08809602080127</v>
+        <v>5.155511852305051</v>
       </c>
       <c r="AF2">
-        <v>5.069790336907922</v>
+        <v>5.13692049858476</v>
       </c>
     </row>
   </sheetData>
